--- a/Zadanie_1/przypadki_na_3/IAD_zad1_na_3.xlsx
+++ b/Zadanie_1/przypadki_na_3/IAD_zad1_na_3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\studia\IAD\Zadanie1\IAD\Zadanie_1\przypadki_na_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -173,11 +173,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -202,15 +202,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:colOff>171449</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>484729</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>108302</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -227,8 +227,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3038475" y="561975"/>
-          <a:ext cx="3027904" cy="2009775"/>
+          <a:off x="2705099" y="390525"/>
+          <a:ext cx="2984853" cy="1981200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -240,15 +240,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
+      <xdr:colOff>336774</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -265,8 +265,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2924175" y="3219451"/>
-          <a:ext cx="3228975" cy="2136960"/>
+          <a:off x="2838450" y="3286126"/>
+          <a:ext cx="3079974" cy="2038350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -278,15 +278,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:colOff>542926</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>599401</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>13095</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -303,8 +303,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3009900" y="6048375"/>
-          <a:ext cx="3171151" cy="2133600"/>
+          <a:off x="3076576" y="6076950"/>
+          <a:ext cx="3162300" cy="2127645"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -322,9 +322,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>475452</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>164946</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -342,7 +342,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3133725" y="8591550"/>
-          <a:ext cx="2923377" cy="1962150"/>
+          <a:ext cx="2771775" cy="1860396"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -430,15 +430,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>46237</xdr:colOff>
       <xdr:row>106</xdr:row>
-      <xdr:rowOff>21861</xdr:rowOff>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -455,8 +455,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3048000" y="18268951"/>
-          <a:ext cx="2943225" cy="1945910"/>
+          <a:off x="2952751" y="18087976"/>
+          <a:ext cx="3284736" cy="2171700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -467,16 +467,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438152</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>409015</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
       <xdr:row>119</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>145977</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -493,8 +493,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3171826" y="20964525"/>
-          <a:ext cx="2818839" cy="1857375"/>
+          <a:off x="2971802" y="20650201"/>
+          <a:ext cx="3286124" cy="2165276"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -506,15 +506,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>366306</xdr:colOff>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>131</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:rowOff>62583</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -531,8 +531,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="23241001"/>
-          <a:ext cx="2804706" cy="1828800"/>
+          <a:off x="3162300" y="23136226"/>
+          <a:ext cx="2886075" cy="1881857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -546,13 +546,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>92753</xdr:rowOff>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>122115</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -569,8 +569,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3190875" y="25507950"/>
-          <a:ext cx="2762250" cy="1826303"/>
+          <a:off x="3190875" y="25441275"/>
+          <a:ext cx="2619376" cy="1731840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -771,16 +771,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>218</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>39719</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>227</xdr:row>
-      <xdr:rowOff>86439</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>177309</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -797,8 +797,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="41529000"/>
-          <a:ext cx="2781300" cy="1800939"/>
+          <a:off x="2573369" y="41005125"/>
+          <a:ext cx="3795190" cy="2457450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -847,16 +847,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
       <xdr:row>230</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>452081</xdr:colOff>
-      <xdr:row>239</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>350144</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -873,8 +873,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="43815000"/>
-          <a:ext cx="2890481" cy="1876425"/>
+          <a:off x="3114676" y="43910251"/>
+          <a:ext cx="2817118" cy="1828800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1151,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="E231" sqref="E231"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,10 +1163,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1174,10 +1174,10 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
         <v>5000</v>
       </c>
       <c r="K4" t="s">
@@ -1185,10 +1185,10 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>1E-4</v>
       </c>
       <c r="K5" t="s">
@@ -1196,10 +1196,10 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.5</v>
       </c>
       <c r="K6" t="s">
@@ -1207,10 +1207,10 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
         <v>0.2</v>
       </c>
       <c r="K7" t="s">
@@ -1218,10 +1218,10 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="K8" t="s">
@@ -1229,18 +1229,18 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>1</v>
       </c>
       <c r="K10" t="s">
@@ -1248,18 +1248,18 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>4</v>
       </c>
       <c r="K12" t="s">
@@ -1292,10 +1292,10 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3">
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
         <v>5000</v>
       </c>
       <c r="K19" t="s">
@@ -1303,10 +1303,10 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>1E-4</v>
       </c>
       <c r="K20" t="s">
@@ -1314,10 +1314,10 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>0.5</v>
       </c>
       <c r="K21" t="s">
@@ -1325,10 +1325,10 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="3">
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2">
         <v>0.2</v>
       </c>
       <c r="K22" t="s">
@@ -1336,10 +1336,10 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K23" t="s">
@@ -1347,18 +1347,18 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>1</v>
       </c>
       <c r="K25" t="s">
@@ -1366,18 +1366,18 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>4</v>
       </c>
       <c r="K27" t="s">
@@ -1410,74 +1410,74 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="3">
+      <c r="B33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
         <v>5000</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>1E-4</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="3">
+      <c r="B36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="2">
         <v>0.9</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1487,74 +1487,74 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="3">
+      <c r="B46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2">
         <v>5000</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="2">
         <v>1E-4</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="3">
+      <c r="B49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="2">
         <v>1E-3</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1564,74 +1564,74 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" s="3">
+      <c r="B70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="2">
         <v>5000</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="2">
         <v>1E-4</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C73" s="3">
+      <c r="B73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1641,74 +1641,74 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C83" s="3">
+      <c r="B83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="2">
         <v>5000</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84" s="2">
         <v>1E-4</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B86" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C86" s="3">
+      <c r="B86" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1718,74 +1718,74 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B97" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C97" s="3">
+      <c r="B97" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="2">
         <v>5000</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98" s="2">
         <v>1E-4</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B100" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C100" s="3">
+      <c r="B100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100" s="2">
         <v>0.9</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C103" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C104" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C105" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1795,74 +1795,74 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B111" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C111" s="3">
+      <c r="B111" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="2">
         <v>5000</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C112" s="2">
         <v>1E-4</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C113" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B114" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C114" s="3">
+      <c r="B114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114" s="2">
         <v>1E-3</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C116" s="3">
+      <c r="C116" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C117" s="3">
+      <c r="C117" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C118" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C119" s="3">
+      <c r="C119" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1872,74 +1872,74 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B123" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C123" s="3">
+      <c r="B123" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C123" s="2">
         <v>5000</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C124" s="3">
+      <c r="C124" s="2">
         <v>1E-4</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C125" s="3">
+      <c r="C125" s="2">
         <v>0.9</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B126" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C126" s="3">
+      <c r="B126" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C128" s="3">
+      <c r="C128" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C129" s="3">
+      <c r="C129" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C130" s="3">
+      <c r="C130" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C131" s="3">
+      <c r="C131" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1949,74 +1949,74 @@
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B135" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C135" s="3">
+      <c r="B135" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C135" s="2">
         <v>5000</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136" s="2">
         <v>1E-4</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137" s="2">
         <v>1E-3</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B138" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C138" s="3">
-        <v>0.9</v>
+      <c r="B138" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138" s="2">
+        <v>0.2</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C139" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C141" s="3">
+      <c r="C141" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C142" s="3">
+      <c r="C142" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C143" s="2">
         <v>4</v>
       </c>
     </row>
@@ -2026,74 +2026,74 @@
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B147" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C147" s="3">
+      <c r="B147" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C147" s="2">
         <v>5000</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C148" s="3">
+      <c r="C148" s="2">
         <v>1E-4</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C149" s="3">
+      <c r="C149" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B150" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C150" s="3">
+      <c r="B150" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="C151" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C152" s="3">
+      <c r="C152" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C153" s="3">
+      <c r="C153" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C154" s="3">
+      <c r="C154" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C155" s="3">
+      <c r="C155" s="2">
         <v>4</v>
       </c>
     </row>
@@ -2103,74 +2103,74 @@
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B159" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C159" s="3">
+      <c r="B159" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C159" s="2">
         <v>5000</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C160" s="3">
+      <c r="C160" s="2">
         <v>1E-4</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C161" s="3">
+      <c r="C161" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B162" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C162" s="3">
+      <c r="B162" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C162" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B163" s="2" t="s">
+      <c r="B163" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C163" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C164" s="3">
+      <c r="C164" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B165" s="2" t="s">
+      <c r="B165" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C165" s="3">
+      <c r="C165" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C166" s="3">
+      <c r="C166" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B167" s="2" t="s">
+      <c r="B167" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C167" s="3">
+      <c r="C167" s="2">
         <v>4</v>
       </c>
     </row>
@@ -2180,74 +2180,74 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B171" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C171" s="3">
+      <c r="B171" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C171" s="2">
         <v>5000</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B172" s="2" t="s">
+      <c r="B172" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C172" s="3">
+      <c r="C172" s="2">
         <v>1E-4</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B173" s="2" t="s">
+      <c r="B173" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C173" s="3">
+      <c r="C173" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B174" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C174" s="3">
+      <c r="B174" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C174" s="2">
         <v>0.9</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B175" s="2" t="s">
+      <c r="B175" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="C175" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B176" s="2" t="s">
+      <c r="B176" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C176" s="3">
+      <c r="C176" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B177" s="2" t="s">
+      <c r="B177" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C177" s="3">
+      <c r="C177" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B178" s="2" t="s">
+      <c r="B178" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C178" s="3">
+      <c r="C178" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B179" s="2" t="s">
+      <c r="B179" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C179" s="3">
+      <c r="C179" s="2">
         <v>4</v>
       </c>
     </row>
@@ -2257,74 +2257,74 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B183" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C183" s="3">
+      <c r="B183" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C183" s="2">
         <v>5000</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B184" s="2" t="s">
+      <c r="B184" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C184" s="3">
+      <c r="C184" s="2">
         <v>1E-4</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B185" s="2" t="s">
+      <c r="B185" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C185" s="3">
+      <c r="C185" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B186" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C186" s="3">
+      <c r="B186" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C186" s="2">
         <v>1E-3</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B187" s="2" t="s">
+      <c r="B187" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C187" s="3" t="s">
+      <c r="C187" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B188" s="2" t="s">
+      <c r="B188" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C188" s="3">
+      <c r="C188" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B189" s="2" t="s">
+      <c r="B189" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C189" s="3">
+      <c r="C189" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B190" s="2" t="s">
+      <c r="B190" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C190" s="3">
+      <c r="C190" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B191" s="2" t="s">
+      <c r="B191" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C191" s="3">
+      <c r="C191" s="2">
         <v>4</v>
       </c>
     </row>
@@ -2334,74 +2334,74 @@
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B195" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C195" s="3">
+      <c r="B195" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C195" s="2">
         <v>5000</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B196" s="2" t="s">
+      <c r="B196" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C196" s="3">
+      <c r="C196" s="2">
         <v>1E-4</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B197" s="2" t="s">
+      <c r="B197" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C197" s="3">
+      <c r="C197" s="2">
         <v>0.9</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B198" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C198" s="3">
+      <c r="B198" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C198" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B199" s="2" t="s">
+      <c r="B199" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C199" s="3" t="s">
+      <c r="C199" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B200" s="2" t="s">
+      <c r="B200" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C200" s="3">
+      <c r="C200" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B201" s="2" t="s">
+      <c r="B201" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C201" s="3">
+      <c r="C201" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B202" s="2" t="s">
+      <c r="B202" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C202" s="3">
+      <c r="C202" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B203" s="2" t="s">
+      <c r="B203" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C203" s="3">
+      <c r="C203" s="2">
         <v>4</v>
       </c>
     </row>
@@ -2411,74 +2411,74 @@
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B207" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C207" s="3">
+      <c r="B207" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C207" s="2">
         <v>5000</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B208" s="2" t="s">
+      <c r="B208" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C208" s="3">
+      <c r="C208" s="2">
         <v>1E-4</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B209" s="2" t="s">
+      <c r="B209" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C209" s="3">
+      <c r="C209" s="2">
         <v>1E-3</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B210" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C210" s="3">
+      <c r="B210" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C210" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B211" s="2" t="s">
+      <c r="B211" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C211" s="3" t="s">
+      <c r="C211" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B212" s="2" t="s">
+      <c r="B212" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C212" s="3">
+      <c r="C212" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B213" s="2" t="s">
+      <c r="B213" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C213" s="3">
+      <c r="C213" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B214" s="2" t="s">
+      <c r="B214" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C214" s="3">
+      <c r="C214" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B215" s="2" t="s">
+      <c r="B215" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C215" s="3">
+      <c r="C215" s="2">
         <v>4</v>
       </c>
     </row>
@@ -2491,74 +2491,74 @@
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B219" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C219" s="3">
+      <c r="B219" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C219" s="2">
         <v>5000</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B220" s="2" t="s">
+      <c r="B220" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C220" s="3">
+      <c r="C220" s="2">
         <v>1E-4</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B221" s="2" t="s">
+      <c r="B221" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C221" s="3">
+      <c r="C221" s="2">
         <v>0.9</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B222" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C222" s="3">
+      <c r="B222" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C222" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B223" s="2" t="s">
+      <c r="B223" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C223" s="3" t="s">
+      <c r="C223" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B224" s="2" t="s">
+      <c r="B224" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C224" s="3">
+      <c r="C224" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B225" s="2" t="s">
+      <c r="B225" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C225" s="3">
+      <c r="C225" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B226" s="2" t="s">
+      <c r="B226" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C226" s="3">
+      <c r="C226" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B227" s="2" t="s">
+      <c r="B227" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C227" s="3">
+      <c r="C227" s="2">
         <v>4</v>
       </c>
     </row>
@@ -2571,74 +2571,74 @@
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B232" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C232" s="3">
+      <c r="B232" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C232" s="2">
         <v>5000</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B233" s="2" t="s">
+      <c r="B233" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C233" s="3">
+      <c r="C233" s="2">
         <v>1E-4</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B234" s="2" t="s">
+      <c r="B234" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C234" s="3">
+      <c r="C234" s="2">
         <v>1E-3</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B235" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C235" s="3">
+      <c r="B235" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C235" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B236" s="2" t="s">
+      <c r="B236" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C236" s="3" t="s">
+      <c r="C236" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B237" s="2" t="s">
+      <c r="B237" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C237" s="3">
+      <c r="C237" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B238" s="2" t="s">
+      <c r="B238" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C238" s="3">
+      <c r="C238" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B239" s="2" t="s">
+      <c r="B239" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C239" s="3">
+      <c r="C239" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B240" s="2" t="s">
+      <c r="B240" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C240" s="3">
+      <c r="C240" s="2">
         <v>4</v>
       </c>
     </row>
